--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,75 +436,80 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Entity</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>front</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>drill</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>robot</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>back</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>press</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Resource</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ResourceName</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>StateName</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>timeIn</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>timeOut</t>
         </is>
@@ -514,4001 +519,4301 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614E0C50&gt;</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10.52</v>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF97990&gt;</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.57</v>
+        <v>3.960956293301946</v>
       </c>
       <c r="H2" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>9.600157208367223</v>
+        <v>16.2900528132203</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>10.96405234596766</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614E0A50&gt;</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10.52</v>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF21F90&gt;</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.57</v>
+        <v>21.07054343512567</v>
       </c>
       <c r="H3" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
+        <v>10.79824969762635</v>
+      </c>
+      <c r="J3" t="n">
         <v>9.600157208367223</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061518C10&gt;</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10.52</v>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFEE1D50&gt;</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.57</v>
+        <v>6.674532975782263</v>
       </c>
       <c r="H4" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>9.600157208367223</v>
+        <v>8.945107676412833</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>10.17873798410574</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151ADD0&gt;</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10.52</v>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF21FD0&gt;</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.57</v>
+        <v>15.69509499865475</v>
       </c>
       <c r="H5" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>9.600157208367223</v>
+        <v>9.493274945167135</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>11.44089319920146</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151AE10&gt;</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10.52</v>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF23850&gt;</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.57</v>
+        <v>10.43783098527713</v>
       </c>
       <c r="H6" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>9.600157208367223</v>
+        <v>4.857305318085396</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>11.06755799014997</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151AF10&gt;</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>10.52</v>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF22090&gt;</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.57</v>
+        <v>15.81160402108912</v>
       </c>
       <c r="H7" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>9.600157208367223</v>
+        <v>66.64146110631701</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>8.222722120123588</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061519150&gt;</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>10.52</v>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF229D0&gt;</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>10.57</v>
+        <v>6.086939789264386</v>
       </c>
       <c r="H8" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I8" t="n">
-        <v>9.600157208367223</v>
+        <v>5.544078888955192</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>10.15008841752559</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061519090&gt;</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>10.52</v>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF23350&gt;</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F9" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10.57</v>
+        <v>9.188265916589589</v>
       </c>
       <c r="H9" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>9.600157208367223</v>
+        <v>8.710988568596001</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>9.048642791702301</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240615190D0&gt;</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>10.52</v>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF20E10&gt;</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.57</v>
+        <v>9.420140572753386</v>
       </c>
       <c r="H10" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>9.600157208367223</v>
+        <v>5.578678119301297</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>9.096781148206441</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151AED0&gt;</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>10.52</v>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECF290&gt;</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10.57</v>
+        <v>4.709158164379366</v>
       </c>
       <c r="H11" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I11" t="n">
-        <v>9.600157208367223</v>
+        <v>8.368432776365143</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>9.610598501938371</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151B690&gt;</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>10.52</v>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF22990&gt;</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>10.57</v>
+        <v>10.21019643076398</v>
       </c>
       <c r="H12" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I12" t="n">
-        <v>9.600157208367223</v>
+        <v>16.50864176359618</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>9.344043571160878</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151B090&gt;</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>10.52</v>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECDD10&gt;</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.57</v>
+        <v>7.393454294140356</v>
       </c>
       <c r="H13" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I13" t="n">
-        <v>9.600157208367223</v>
+        <v>15.70102423789325</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>10.65427350696297</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151B190&gt;</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>10.52</v>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECDC50&gt;</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10.57</v>
+        <v>4.715423210745303</v>
       </c>
       <c r="H14" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I14" t="n">
-        <v>9.600157208367223</v>
+        <v>10.16911316015832</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>9.961037725146992</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061519310&gt;</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>10.52</v>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECCB10&gt;</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>10.57</v>
+        <v>17.21706227602109</v>
       </c>
       <c r="H15" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>9.600157208367223</v>
+        <v>9.9369626208901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>9.321675016492827</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151B3D0&gt;</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>10.52</v>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECDDD0&gt;</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n">
-        <v>14.99205706244615</v>
+        <v>108</v>
       </c>
       <c r="G16" t="n">
-        <v>10.57</v>
+        <v>7.84222184442585</v>
       </c>
       <c r="H16" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I16" t="n">
-        <v>9.600157208367223</v>
+        <v>6.315968193429736</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>9.643863232745424</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151B310&gt;</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>10.52</v>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECD890&gt;</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F17" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10.57</v>
+        <v>14.52539138962193</v>
       </c>
       <c r="H17" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I17" t="n">
-        <v>9.600157208367223</v>
+        <v>28.61835199130219</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>9.533674327374266</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151AE50&gt;</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>10.52</v>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECC290&gt;</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F18" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>10.57</v>
+        <v>7.895411797143117</v>
       </c>
       <c r="H18" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I18" t="n">
-        <v>9.600157208367223</v>
+        <v>9.051259850535576</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>10.6940790731576</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151B610&gt;</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>10.52</v>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECCDD0&gt;</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F19" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.57</v>
+        <v>12.3009025187433</v>
       </c>
       <c r="H19" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I19" t="n">
-        <v>9.600157208367223</v>
+        <v>5.36251190737692</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>8.994841736234198</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061518950&gt;</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>10.52</v>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECDA50&gt;</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F20" t="n">
-        <v>14.99205706244615</v>
+        <v>105</v>
       </c>
       <c r="G20" t="n">
-        <v>10.57</v>
+        <v>8.120188415824384</v>
       </c>
       <c r="H20" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I20" t="n">
-        <v>9.600157208367223</v>
+        <v>17.46552993178599</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>9.5130677016509</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151AFD0&gt;</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>10.52</v>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECCF10&gt;</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F21" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10.57</v>
+        <v>8.054782219651951</v>
       </c>
       <c r="H21" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I21" t="n">
-        <v>9.600157208367223</v>
+        <v>5.994610689595341</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>8.345904260698275</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061518690&gt;</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>10.52</v>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECE010&gt;</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F22" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.57</v>
+        <v>11.60546942990103</v>
       </c>
       <c r="H22" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>9.600157208367223</v>
+        <v>11.42830305331638</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>6.647010184165921</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061519050&gt;</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>10.52</v>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECEA50&gt;</t>
+        </is>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F23" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>10.57</v>
+        <v>7.655428005764921</v>
       </c>
       <c r="H23" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I23" t="n">
-        <v>9.600157208367223</v>
+        <v>10.36364845623034</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>9.853618595440359</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240615192D0&gt;</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>10.52</v>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECD450&gt;</t>
+        </is>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>14.99205706244615</v>
+        <v>108</v>
       </c>
       <c r="G24" t="n">
-        <v>10.57</v>
+        <v>19.97934163056141</v>
       </c>
       <c r="H24" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I24" t="n">
-        <v>9.600157208367223</v>
+        <v>9.685912438116878</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>10.06443619885951</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151B150&gt;</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>10.52</v>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECF090&gt;</t>
+        </is>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F25" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.57</v>
+        <v>7.571457410089344</v>
       </c>
       <c r="H25" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I25" t="n">
-        <v>9.600157208367223</v>
+        <v>6.583587345708459</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>8.457834979593557</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151A550&gt;</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>10.52</v>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECE310&gt;</t>
+        </is>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F26" t="n">
-        <v>14.99205706244615</v>
+        <v>108</v>
       </c>
       <c r="G26" t="n">
-        <v>10.57</v>
+        <v>16.14822175598468</v>
       </c>
       <c r="H26" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I26" t="n">
-        <v>9.600157208367223</v>
+        <v>9.272585989758666</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+        <v>11.46975462398761</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151A010&gt;</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>10.52</v>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECD650&gt;</t>
+        </is>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F27" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>10.57</v>
+        <v>8.186671703637376</v>
       </c>
       <c r="H27" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I27" t="n">
-        <v>9.600157208367223</v>
+        <v>5.536836148004428</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>7.745634325401235</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151A290&gt;</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>10.52</v>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECD390&gt;</t>
+        </is>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>10.57</v>
+        <v>11.51511674232513</v>
       </c>
       <c r="H28" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I28" t="n">
-        <v>9.600157208367223</v>
+        <v>7.023545638059497</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>9.245758517301445</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406151B550&gt;</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>10.52</v>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECD250&gt;</t>
+        </is>
       </c>
       <c r="D29" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F29" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>10.57</v>
+        <v>11.38716470840039</v>
       </c>
       <c r="H29" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I29" t="n">
-        <v>9.600157208367223</v>
+        <v>5.083331741593512</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>9.012816149974165</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061518ED0&gt;</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>10.52</v>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECE210&gt;</t>
+        </is>
       </c>
       <c r="D30" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F30" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>10.57</v>
+        <v>4.524882593645197</v>
       </c>
       <c r="H30" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I30" t="n">
-        <v>9.600157208367223</v>
+        <v>25.00123968824924</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>10.73277921435846</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240613CF950&gt;</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>10.52</v>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECE250&gt;</t>
+        </is>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.57</v>
+        <v>6.913634368237823</v>
       </c>
       <c r="H31" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I31" t="n">
-        <v>9.600157208367223</v>
+        <v>3.506772726331186</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+        <v>10.66935876990028</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144B510&gt;</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>10.52</v>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECEE10&gt;</t>
+        </is>
       </c>
       <c r="D32" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F32" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>10.57</v>
+        <v>10.25429311658448</v>
       </c>
       <c r="H32" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I32" t="n">
-        <v>9.600157208367223</v>
+        <v>15.97317020716001</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>9.354947425696915</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614489D0&gt;</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>10.52</v>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECD0D0&gt;</t>
+        </is>
       </c>
       <c r="D33" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F33" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>10.57</v>
+        <v>6.495714058651285</v>
       </c>
       <c r="H33" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I33" t="n">
-        <v>9.600157208367223</v>
+        <v>10.01989629249013</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>9.578162519602174</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144B810&gt;</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>10.52</v>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECE150&gt;</t>
+        </is>
       </c>
       <c r="D34" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F34" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>10.57</v>
+        <v>5.663304061049466</v>
       </c>
       <c r="H34" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I34" t="n">
-        <v>9.600157208367223</v>
+        <v>8.672431186123628</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>8.312214252369886</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448E10&gt;</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>10.52</v>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECD490&gt;</t>
+        </is>
       </c>
       <c r="D35" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F35" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>10.57</v>
+        <v>12.90793637604024</v>
       </c>
       <c r="H35" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I35" t="n">
-        <v>9.600157208367223</v>
+        <v>4.780218982666332</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>7.219203531776072</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061449B50&gt;</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>10.52</v>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECE090&gt;</t>
+        </is>
       </c>
       <c r="D36" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F36" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>10.57</v>
+        <v>9.291168851169406</v>
       </c>
       <c r="H36" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I36" t="n">
-        <v>9.600157208367223</v>
+        <v>5.084037518480518</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>8.852087850673847</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448290&gt;</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>10.52</v>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECCE90&gt;</t>
+        </is>
       </c>
       <c r="D37" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F37" t="n">
-        <v>14.99205706244615</v>
+        <v>81</v>
       </c>
       <c r="G37" t="n">
-        <v>10.57</v>
+        <v>7.626559234895825</v>
       </c>
       <c r="H37" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I37" t="n">
-        <v>9.600157208367223</v>
+        <v>10.26159338872059</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>9.35634896910398</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144B710&gt;</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>10.52</v>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7ADD3BAD0&gt;</t>
+        </is>
       </c>
       <c r="D38" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F38" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>10.57</v>
+        <v>5.988167354527046</v>
       </c>
       <c r="H38" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I38" t="n">
-        <v>9.600157208367223</v>
+        <v>23.1243881185307</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>10.43029068072772</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061449BD0&gt;</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>10.52</v>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7B01E5E90&gt;</t>
+        </is>
       </c>
       <c r="D39" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F39" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>10.57</v>
+        <v>11.85257325986163</v>
       </c>
       <c r="H39" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I39" t="n">
-        <v>9.600157208367223</v>
+        <v>6.880536304385076</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>10.40237984878441</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144A010&gt;</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>10.52</v>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFECC3D0&gt;</t>
+        </is>
       </c>
       <c r="D40" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F40" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.57</v>
+        <v>13.17291905390882</v>
       </c>
       <c r="H40" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I40" t="n">
-        <v>9.600157208367223</v>
+        <v>23.93247514950035</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>8.812673182592047</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144A0D0&gt;</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>10.52</v>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7B22DE1D0&gt;</t>
+        </is>
       </c>
       <c r="D41" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F41" t="n">
-        <v>14.99205706244615</v>
+        <v>105</v>
       </c>
       <c r="G41" t="n">
-        <v>10.57</v>
+        <v>5.315426166023951</v>
       </c>
       <c r="H41" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I41" t="n">
-        <v>9.600157208367223</v>
+        <v>14.19104496701478</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>8.897697249424663</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144A110&gt;</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>10.52</v>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7B042D690&gt;</t>
+        </is>
       </c>
       <c r="D42" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F42" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>10.57</v>
+        <v>4.02125940944426</v>
       </c>
       <c r="H42" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I42" t="n">
-        <v>9.600157208367223</v>
+        <v>7.726476169113341</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>8.151447034932907</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144B3D0&gt;</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>10.52</v>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7B041C3D0&gt;</t>
+        </is>
       </c>
       <c r="D43" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F43" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.57</v>
+        <v>8.648194402701328</v>
       </c>
       <c r="H43" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I43" t="n">
-        <v>9.600157208367223</v>
+        <v>7.383572098091587</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>7.779982062821024</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144B450&gt;</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>10.52</v>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7B04202D0&gt;</t>
+        </is>
       </c>
       <c r="D44" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F44" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>10.57</v>
+        <v>6.203555136802395</v>
       </c>
       <c r="H44" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I44" t="n">
-        <v>9.600157208367223</v>
+        <v>8.139482148731984</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>7.493729809374987</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144AF90&gt;</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>10.52</v>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7B0422050&gt;</t>
+        </is>
       </c>
       <c r="D45" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F45" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>10.57</v>
+        <v>4.76169956348432</v>
       </c>
       <c r="H45" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I45" t="n">
-        <v>9.600157208367223</v>
+        <v>6.576555029209739</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>11.15077539523179</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614490D0&gt;</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>10.52</v>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AD06ABD0&gt;</t>
+        </is>
       </c>
       <c r="D46" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F46" t="n">
-        <v>14.99205706244615</v>
+        <v>81</v>
       </c>
       <c r="G46" t="n">
-        <v>10.57</v>
+        <v>7.939816550710533</v>
       </c>
       <c r="H46" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I46" t="n">
-        <v>9.600157208367223</v>
+        <v>9.806348750978131</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+        <v>8.690347818248346</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144B550&gt;</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>10.52</v>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2EA90&gt;</t>
+        </is>
       </c>
       <c r="D47" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F47" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>10.57</v>
+        <v>7.666521217705069</v>
       </c>
       <c r="H47" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>9.600157208367223</v>
+        <v>11.78370253675316</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>8.761925698388813</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061449490&gt;</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10.52</v>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2C790&gt;</t>
+        </is>
       </c>
       <c r="D48" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F48" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>10.57</v>
+        <v>7.889519915411595</v>
       </c>
       <c r="H48" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>9.600157208367223</v>
+        <v>14.27347507249961</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>7.947204639950073</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061449D90&gt;</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>10.52</v>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2C7D0&gt;</t>
+        </is>
       </c>
       <c r="D49" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F49" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>10.57</v>
+        <v>9.323461958149775</v>
       </c>
       <c r="H49" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I49" t="n">
-        <v>9.600157208367223</v>
+        <v>16.01878472334364</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>9.977490355831909</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144B250&gt;</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>10.52</v>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2FED0&gt;</t>
+        </is>
       </c>
       <c r="D50" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F50" t="n">
-        <v>14.99205706244615</v>
+        <v>81</v>
       </c>
       <c r="G50" t="n">
-        <v>10.57</v>
+        <v>31.31789363305073</v>
       </c>
       <c r="H50" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I50" t="n">
-        <v>9.600157208367223</v>
+        <v>7.371266128165228</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>7.586102152442048</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144B8D0&gt;</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>10.52</v>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2E150&gt;</t>
+        </is>
       </c>
       <c r="D51" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F51" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>10.57</v>
+        <v>11.25413054495149</v>
       </c>
       <c r="H51" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I51" t="n">
-        <v>9.600157208367223</v>
+        <v>10.78651928145181</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>8.98725971978603</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144A4D0&gt;</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>10.52</v>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2E190&gt;</t>
+        </is>
       </c>
       <c r="D52" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F52" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>10.57</v>
+        <v>19.96248539354296</v>
       </c>
       <c r="H52" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I52" t="n">
-        <v>9.600157208367223</v>
+        <v>7.725995010803627</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>8.304533438806324</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144BB10&gt;</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>10.52</v>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2C850&gt;</t>
+        </is>
       </c>
       <c r="D53" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F53" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>10.57</v>
+        <v>3.955772968052392</v>
       </c>
       <c r="H53" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I53" t="n">
-        <v>9.600157208367223</v>
+        <v>15.54992471582377</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>9.586902497859262</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144BB90&gt;</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>10.52</v>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2C890&gt;</t>
+        </is>
       </c>
       <c r="D54" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F54" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>10.57</v>
+        <v>3.652911081302499</v>
       </c>
       <c r="H54" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>9.600157208367223</v>
+        <v>9.887718175894612</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>8.689194862431126</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448E90&gt;</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>10.52</v>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2C8D0&gt;</t>
+        </is>
       </c>
       <c r="D55" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F55" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>10.57</v>
+        <v>8.70505830539428</v>
       </c>
       <c r="H55" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>9.600157208367223</v>
+        <v>24.5750066561784</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>8.019367815877587</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144BA50&gt;</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>10.52</v>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2F350&gt;</t>
+        </is>
       </c>
       <c r="D56" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F56" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>10.57</v>
+        <v>3.757709079009816</v>
       </c>
       <c r="H56" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I56" t="n">
-        <v>9.600157208367223</v>
+        <v>3.539381910595631</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>9.171817771661344</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144A150&gt;</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>10.52</v>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2F390&gt;</t>
+        </is>
       </c>
       <c r="D57" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F57" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>10.57</v>
+        <v>5.601771924769596</v>
       </c>
       <c r="H57" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I57" t="n">
-        <v>9.600157208367223</v>
+        <v>12.08536582243804</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>9.628331870530417</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144AB10&gt;</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>10.52</v>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2F3D0&gt;</t>
+        </is>
       </c>
       <c r="D58" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F58" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>10.57</v>
+        <v>15.36920465282157</v>
       </c>
       <c r="H58" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I58" t="n">
-        <v>9.600157208367223</v>
+        <v>5.290072421192042</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>9.266517222383166</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614483D0&gt;</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>10.52</v>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2E350&gt;</t>
+        </is>
       </c>
       <c r="D59" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F59" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>10.57</v>
+        <v>13.96087288968202</v>
       </c>
       <c r="H59" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I59" t="n">
-        <v>9.600157208367223</v>
+        <v>9.201320706215153</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>9.502471897739781</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614493D0&gt;</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>10.52</v>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2C210&gt;</t>
+        </is>
       </c>
       <c r="D60" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F60" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>10.57</v>
+        <v>6.229838236259834</v>
       </c>
       <c r="H60" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I60" t="n">
-        <v>9.600157208367223</v>
+        <v>12.46141477798608</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>8.565677906319035</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448D50&gt;</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>10.52</v>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2F450&gt;</t>
+        </is>
       </c>
       <c r="D61" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F61" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>10.57</v>
+        <v>4.757854139156786</v>
       </c>
       <c r="H61" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I61" t="n">
-        <v>9.600157208367223</v>
+        <v>42.47353012849833</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>8.837258834012861</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061449ED0&gt;</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>10.52</v>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2C290&gt;</t>
+        </is>
       </c>
       <c r="D62" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F62" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>10.57</v>
+        <v>5.934315021154802</v>
       </c>
       <c r="H62" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I62" t="n">
-        <v>9.600157208367223</v>
+        <v>19.22704434342563</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>8.527539552224049</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448150&gt;</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>10.52</v>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2F4D0&gt;</t>
+        </is>
       </c>
       <c r="D63" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F63" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>10.57</v>
+        <v>7.187650644324283</v>
       </c>
       <c r="H63" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I63" t="n">
-        <v>9.600157208367223</v>
+        <v>7.800335547694261</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>8.840446838459458</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061449450&gt;</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>10.52</v>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2E510&gt;</t>
+        </is>
       </c>
       <c r="D64" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F64" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>10.57</v>
+        <v>8.069982631447058</v>
       </c>
       <c r="H64" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I64" t="n">
-        <v>9.600157208367223</v>
+        <v>12.43358185724777</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>8.386853717955546</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144BC90&gt;</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>10.52</v>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2DC90&gt;</t>
+        </is>
       </c>
       <c r="D65" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F65" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>10.57</v>
+        <v>37.48342149785038</v>
       </c>
       <c r="H65" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I65" t="n">
-        <v>9.600157208367223</v>
+        <v>4.949550339015966</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+        <v>7.473717397668322</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144BED0&gt;</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>10.52</v>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2E7D0&gt;</t>
+        </is>
       </c>
       <c r="D66" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F66" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>10.57</v>
+        <v>27.42122909400365</v>
       </c>
       <c r="H66" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I66" t="n">
-        <v>9.600157208367223</v>
+        <v>8.035138555550271</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+        <v>9.377426142253752</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448510&gt;</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>10.52</v>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2F650&gt;</t>
+        </is>
       </c>
       <c r="D67" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F67" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>10.57</v>
+        <v>7.060548757568251</v>
       </c>
       <c r="H67" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I67" t="n">
-        <v>9.600157208367223</v>
+        <v>4.293006852743066</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+        <v>8.798219063791738</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144AA10&gt;</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>10.52</v>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2EBD0&gt;</t>
+        </is>
       </c>
       <c r="D68" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F68" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>10.57</v>
+        <v>12.75728783875682</v>
       </c>
       <c r="H68" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I68" t="n">
-        <v>9.600157208367223</v>
+        <v>14.80216228057961</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+        <v>7.569801653033955</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144A9D0&gt;</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>10.52</v>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2C450&gt;</t>
+        </is>
       </c>
       <c r="D69" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F69" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>10.57</v>
+        <v>15.25010563680638</v>
       </c>
       <c r="H69" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I69" t="n">
-        <v>9.600157208367223</v>
+        <v>6.853816708735488</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>9.662782255525773</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144AA50&gt;</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>10.52</v>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2F6D0&gt;</t>
+        </is>
       </c>
       <c r="D70" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F70" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>10.57</v>
+        <v>19.78821628305041</v>
       </c>
       <c r="H70" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I70" t="n">
-        <v>9.600157208367223</v>
+        <v>37.38226307891764</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>8.292701635616757</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448E50&gt;</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>10.52</v>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2E910&gt;</t>
+        </is>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F71" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>10.57</v>
+        <v>8.588640497222752</v>
       </c>
       <c r="H71" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I71" t="n">
-        <v>9.600157208367223</v>
+        <v>3.948684929353161</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+        <v>9.251945395796138</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144A910&gt;</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>10.52</v>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2C4D0&gt;</t>
+        </is>
       </c>
       <c r="D72" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F72" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>10.57</v>
+        <v>4.296240936421166</v>
       </c>
       <c r="H72" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I72" t="n">
-        <v>9.600157208367223</v>
+        <v>23.19686817883366</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+        <v>9.929090562177537</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614496D0&gt;</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>10.52</v>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2F750&gt;</t>
+        </is>
       </c>
       <c r="D73" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F73" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>10.57</v>
+        <v>9.130936411420631</v>
       </c>
       <c r="H73" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I73" t="n">
-        <v>9.600157208367223</v>
+        <v>4.171546372502021</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+        <v>9.328982910757411</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144B950&gt;</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>10.52</v>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2DE50&gt;</t>
+        </is>
       </c>
       <c r="D74" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F74" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>10.57</v>
+        <v>20.9800464221791</v>
       </c>
       <c r="H74" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I74" t="n">
-        <v>9.600157208367223</v>
+        <v>8.838200691237745</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+        <v>10.3394006845433</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448490&gt;</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>10.52</v>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2EB90&gt;</t>
+        </is>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F75" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>10.57</v>
+        <v>14.3000964732252</v>
       </c>
       <c r="H75" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I75" t="n">
-        <v>9.600157208367223</v>
+        <v>19.63975236992903</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+        <v>7.965174179646347</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144BCD0&gt;</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>10.52</v>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2E450&gt;</t>
+        </is>
       </c>
       <c r="D76" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F76" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>10.57</v>
+        <v>9.327413771882316</v>
       </c>
       <c r="H76" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>9.600157208367223</v>
+        <v>7.108752442016513</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+        <v>9.602341641177548</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448F50&gt;</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>10.52</v>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2DED0&gt;</t>
+        </is>
       </c>
       <c r="D77" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F77" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>10.57</v>
+        <v>5.975994671513257</v>
       </c>
       <c r="H77" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I77" t="n">
-        <v>9.600157208367223</v>
+        <v>10.30560117941028</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>8.515189909059686</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061449050&gt;</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>10.52</v>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2F810&gt;</t>
+        </is>
       </c>
       <c r="D78" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F78" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>10.57</v>
+        <v>5.982762010040229</v>
       </c>
       <c r="H78" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I78" t="n">
-        <v>9.600157208367223</v>
+        <v>29.92145063547258</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+        <v>8.329202850818117</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061449E90&gt;</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>10.52</v>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2CC50&gt;</t>
+        </is>
       </c>
       <c r="D79" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F79" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>10.57</v>
+        <v>3.806500423718472</v>
       </c>
       <c r="H79" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I79" t="n">
-        <v>9.600157208367223</v>
+        <v>10.04111675342537</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+        <v>8.621150335235583</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448BD0&gt;</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>10.52</v>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2EED0&gt;</t>
+        </is>
       </c>
       <c r="D80" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F80" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>10.57</v>
+        <v>24.18555670447272</v>
       </c>
       <c r="H80" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I80" t="n">
-        <v>9.600157208367223</v>
+        <v>4.440843334657529</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+        <v>8.888447467872627</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144AAD0&gt;</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>10.52</v>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2FD50&gt;</t>
+        </is>
       </c>
       <c r="D81" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F81" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>10.57</v>
+        <v>7.112142848467105</v>
       </c>
       <c r="H81" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I81" t="n">
-        <v>9.600157208367223</v>
+        <v>9.448487849735146</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+        <v>9.256165342229744</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061449C10&gt;</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>10.52</v>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2D650&gt;</t>
+        </is>
       </c>
       <c r="D82" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F82" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>10.57</v>
+        <v>13.29870511095757</v>
       </c>
       <c r="H82" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I82" t="n">
-        <v>9.600157208367223</v>
+        <v>8.392451957804283</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+        <v>8.034850159216642</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144AE50&gt;</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>10.52</v>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2F910&gt;</t>
+        </is>
       </c>
       <c r="D83" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F83" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>10.57</v>
+        <v>8.666300770124248</v>
       </c>
       <c r="H83" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I83" t="n">
-        <v>9.600157208367223</v>
+        <v>23.5197945124535</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>10.10082648695419</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144ADD0&gt;</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>10.52</v>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2D6D0&gt;</t>
+        </is>
       </c>
       <c r="D84" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F84" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>10.57</v>
+        <v>9.708201346265678</v>
       </c>
       <c r="H84" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I84" t="n">
-        <v>9.600157208367223</v>
+        <v>15.89161970373334</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+        <v>9.665662439730459</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061449010&gt;</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>10.52</v>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF2D710&gt;</t>
+        </is>
       </c>
       <c r="D85" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F85" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>10.57</v>
+        <v>29.91992050096871</v>
       </c>
       <c r="H85" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I85" t="n">
-        <v>9.600157208367223</v>
+        <v>13.72179241191318</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>7.663756313722775</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614484D0&gt;</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>10.52</v>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1EF50&gt;</t>
+        </is>
       </c>
       <c r="D86" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F86" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>10.57</v>
+        <v>23.24393363818982</v>
       </c>
       <c r="H86" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I86" t="n">
-        <v>9.600157208367223</v>
+        <v>7.034273028175184</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>10.6882521937956</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144AC90&gt;</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>10.52</v>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1E350&gt;</t>
+        </is>
       </c>
       <c r="D87" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F87" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>10.57</v>
+        <v>4.500753717507807</v>
       </c>
       <c r="H87" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I87" t="n">
-        <v>9.600157208367223</v>
+        <v>7.666244560785993</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>11.09588917603058</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000002406144AD10&gt;</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>10.52</v>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1D450&gt;</t>
+        </is>
       </c>
       <c r="D88" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F88" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>10.57</v>
+        <v>22.18876588055721</v>
       </c>
       <c r="H88" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I88" t="n">
-        <v>9.600157208367223</v>
+        <v>27.61039581945464</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+        <v>10.37877957115965</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x0000024061448990&gt;</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>10.52</v>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1E950&gt;</t>
+        </is>
       </c>
       <c r="D89" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F89" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>10.57</v>
+        <v>19.88575720195248</v>
       </c>
       <c r="H89" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I89" t="n">
-        <v>9.600157208367223</v>
+        <v>29.08537668859222</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+        <v>9.020075164187649</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C7950&gt;</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>10.52</v>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1FE50&gt;</t>
+        </is>
       </c>
       <c r="D90" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F90" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>10.57</v>
+        <v>5.950569987741278</v>
       </c>
       <c r="H90" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I90" t="n">
-        <v>9.600157208367223</v>
+        <v>37.44507421432997</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+        <v>8.129247378489456</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C45D0&gt;</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>10.52</v>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1D890&gt;</t>
+        </is>
       </c>
       <c r="D91" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F91" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>10.57</v>
+        <v>13.95424632390534</v>
       </c>
       <c r="H91" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I91" t="n">
-        <v>9.600157208367223</v>
+        <v>48.07593409114033</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>10.25445172693114</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C5CD0&gt;</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>10.52</v>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1D150&gt;</t>
+        </is>
       </c>
       <c r="D92" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F92" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>10.57</v>
+        <v>7.918112976803759</v>
       </c>
       <c r="H92" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I92" t="n">
-        <v>9.600157208367223</v>
+        <v>11.48014800759071</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>8.79682305302682</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C5550&gt;</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>10.52</v>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1D950&gt;</t>
+        </is>
       </c>
       <c r="D93" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F93" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>10.57</v>
+        <v>5.295729274482241</v>
       </c>
       <c r="H93" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I93" t="n">
-        <v>9.600157208367223</v>
+        <v>12.3263350190619</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+        <v>10.42244507038243</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C4E90&gt;</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>10.52</v>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1EE50&gt;</t>
+        </is>
       </c>
       <c r="D94" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F94" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>10.57</v>
+        <v>4.697358851718174</v>
       </c>
       <c r="H94" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I94" t="n">
-        <v>9.600157208367223</v>
+        <v>21.35856237027726</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+        <v>9.408274978076859</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C48D0&gt;</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>10.52</v>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1DC50&gt;</t>
+        </is>
       </c>
       <c r="D95" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F95" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>10.57</v>
+        <v>4.691301855964467</v>
       </c>
       <c r="H95" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I95" t="n">
-        <v>9.600157208367223</v>
+        <v>35.03909984720794</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>10.17663903648371</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C69D0&gt;</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>10.52</v>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1E510&gt;</t>
+        </is>
       </c>
       <c r="D96" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F96" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>10.57</v>
+        <v>11.49604090342864</v>
       </c>
       <c r="H96" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I96" t="n">
-        <v>9.600157208367223</v>
+        <v>15.71199675006569</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>9.556366397174401</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C5FD0&gt;</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>10.52</v>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1DCD0&gt;</t>
+        </is>
       </c>
       <c r="D97" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F97" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>10.57</v>
+        <v>4.089658804547751</v>
       </c>
       <c r="H97" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I97" t="n">
-        <v>9.600157208367223</v>
+        <v>9.900562181426741</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+        <v>9.906573168191947</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C6AD0&gt;</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>10.52</v>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1E810&gt;</t>
+        </is>
       </c>
       <c r="D98" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F98" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>10.57</v>
+        <v>5.338333249860064</v>
       </c>
       <c r="H98" t="n">
-        <v>12.31107508693481</v>
+        <v>3.5</v>
       </c>
       <c r="I98" t="n">
-        <v>9.600157208367223</v>
+        <v>4.656202466385283</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>9.21050002072082</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C4450&gt;</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>10.52</v>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1E7D0&gt;</t>
+        </is>
       </c>
       <c r="D99" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F99" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>10.57</v>
+        <v>13.10204373746362</v>
       </c>
       <c r="H99" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I99" t="n">
-        <v>9.600157208367223</v>
+        <v>17.83557011309726</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>10.98587049390583</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614C7A10&gt;</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>10.52</v>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1EB90&gt;</t>
+        </is>
       </c>
       <c r="D100" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F100" t="n">
-        <v>14.99205706244615</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>10.57</v>
+        <v>3.88812674897257</v>
       </c>
       <c r="H100" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I100" t="n">
-        <v>9.600157208367223</v>
+        <v>4.909835471788762</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+        <v>9.326912092703619</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x00000240614EB450&gt;</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>10.52</v>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001B7AFF1EB10&gt;</t>
+        </is>
       </c>
       <c r="D101" t="n">
-        <v>40</v>
+        <v>10.52</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F101" t="n">
-        <v>14.99205706244615</v>
+        <v>108</v>
       </c>
       <c r="G101" t="n">
-        <v>10.57</v>
+        <v>4.896312204880171</v>
       </c>
       <c r="H101" t="n">
-        <v>12.31107508693481</v>
+        <v>10.57</v>
       </c>
       <c r="I101" t="n">
-        <v>9.600157208367223</v>
+        <v>30.70369022849145</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>9.601989363444702</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4522,33 +4827,36 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
         <v>1</v>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>&lt;0x2405e45d950 (Generator object) at 0x2405e45d950&gt;</t>
-        </is>
-      </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>0x2405e45d950</t>
+          <t>&lt;0x1b7b146b950 (Generator object) at 0x1b7b146b950&gt;</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>&lt;Creating (State) object at 0x24061313f10&gt;</t>
+          <t>0x1b7b146b950</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
+          <t>&lt;Creating (State) object at 0x1b7afee1690&gt;</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
           <t>Creating</t>
         </is>
       </c>
-      <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="inlineStr"/>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/df.xlsx
+++ b/df.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>&lt;front (LabServer object) at 0x2bf70a2af90&gt;</t>
+          <t>&lt;front (LabServer object) at 0x2c772319bd0&gt;</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2bf70a2b5d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x2c77235f390&gt;</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>&lt;drill (LabServer object) at 0x2bf70a37290&gt;</t>
+          <t>&lt;drill (LabServer object) at 0x2c772361250&gt;</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2bf70a37350&gt;</t>
+          <t>&lt;Starving (State) object at 0x2c772361290&gt;</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>&lt;robot (LabServer object) at 0x2bf70381490&gt;</t>
+          <t>&lt;robot (LabServer object) at 0x2c77231a810&gt;</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2bf703803d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x2c77236ca90&gt;</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>&lt;camera (LabServer object) at 0x2bf70b6a050&gt;</t>
+          <t>&lt;camera (LabServer object) at 0x2c77236fc90&gt;</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2bf70b6a010&gt;</t>
+          <t>&lt;Starving (State) object at 0x2c77236fcd0&gt;</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>&lt;back (LabServer object) at 0x2bf70b6bd10&gt;</t>
+          <t>&lt;back (LabServer object) at 0x2c772375b10&gt;</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2bf70b6ae50&gt;</t>
+          <t>&lt;Starving (State) object at 0x2c772375b50&gt;</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>&lt;press (LabServer object) at 0x2bf70737790&gt;</t>
+          <t>&lt;press (LabServer object) at 0x2c772377910&gt;</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2bf707340d0&gt;</t>
+          <t>&lt;Starving (State) object at 0x2c772377950&gt;</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>&lt;manual (LabServer object) at 0x2bf70b5e410&gt;</t>
+          <t>&lt;manual (LabServer object) at 0x2c772379790&gt;</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>&lt;Starving (State) object at 0x2bf70b5e250&gt;</t>
+          <t>&lt;Starving (State) object at 0x2c7723797d0&gt;</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,295 +524,735 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5AB6EB090&gt;</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8.717070654976272</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.943892123754146</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.96405234596766</v>
+      </c>
       <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>&lt;front (LabServer object) at 0x2c772319bd0&gt;</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>front</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>&lt;Starving (State) object at 0x2c77235f390&gt;</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Starving</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5CF4E3590&gt;</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.745715917257514</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.72377488060776</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.600157208367223</v>
+      </c>
       <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>&lt;drill (LabServer object) at 0x2c772361250&gt;</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>drill</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>&lt;Starving (State) object at 0x2c772361290&gt;</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Starving</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5D1382590&gt;</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.165388289500896</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21.70787493447824</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.17873798410574</v>
+      </c>
       <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>&lt;robot (LabServer object) at 0x2c77231a810&gt;</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>robot</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>&lt;Starving (State) object at 0x2c77236ca90&gt;</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Starving</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5CB347D90&gt;</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.287387159277795</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.350878878935017</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.44089319920146</v>
+      </c>
       <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>&lt;camera (LabServer object) at 0x2c77236fc90&gt;</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>camera</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>&lt;Starving (State) object at 0x2c77236fcd0&gt;</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Starving</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5CB347B90&gt;</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.43008934597332</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I6" t="n">
+        <v>41.61690747579319</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.06755799014997</v>
+      </c>
       <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>&lt;back (LabServer object) at 0x2c772375b10&gt;</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>back</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>&lt;Starving (State) object at 0x2c772375b50&gt;</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Starving</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5CB347A50&gt;</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.11612144508607</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23.43492256518761</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.222722120123588</v>
+      </c>
       <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>&lt;press (LabServer object) at 0x2c772377910&gt;</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>press</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>&lt;Starving (State) object at 0x2c772377950&gt;</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Starving</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5CB346B50&gt;</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.274375542101144</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.8963095815863</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.15008841752559</v>
+      </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5D0FDB0D0&gt;</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20.92317790446725</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.55645376988483</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.048642791702301</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5D13AE450&gt;</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.310871598781398</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.4936495327309</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.096781148206441</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5CB344F50&gt;</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>31.9464985248702</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37.98428751095638</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.610598501938371</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>&lt;manual (LabServer object) at 0x2c772379790&gt;</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>&lt;front (LabServer object) at 0x1d5d5b40690&gt;</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>front</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x1d5d5b40710&gt;</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>&lt;drill (LabServer object) at 0x1d5d5b42590&gt;</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x1d5d5b425d0&gt;</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>&lt;robot (LabServer object) at 0x1d5d5b51e50&gt;</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x1d5d5b51e90&gt;</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>&lt;camera (LabServer object) at 0x1d5d5b59110&gt;</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x1d5d5b59150&gt;</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>&lt;back (LabServer object) at 0x1d5d5b5af50&gt;</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x1d5d5b5af90&gt;</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>&lt;press (LabServer object) at 0x1d5d5b64dd0&gt;</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x1d5d5b64e10&gt;</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Starving</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>&lt;manual (LabServer object) at 0x1d5d5b66c10&gt;</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>&lt;Starving (State) object at 0x2c7723797d0&gt;</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>&lt;Starving (State) object at 0x1d5d5b66c50&gt;</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>Starving</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
